--- a/results/mp/logistic/corona/confidence/168/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,33 @@
     <t>name</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,7 +76,7 @@
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
@@ -82,138 +85,159 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>help</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
@@ -223,7 +247,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -581,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8461538461538461</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9666666666666667</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.839041095890411</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C4">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D4">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -800,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7941176470588235</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.9112271540469974</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>349</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>349</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7631578947368421</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -918,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -968,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L9">
         <v>30</v>
       </c>
-      <c r="K9">
-        <v>0.8802816901408451</v>
-      </c>
-      <c r="L9">
-        <v>125</v>
-      </c>
       <c r="M9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5767195767195767</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8636363636363636</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5368217054263565</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C12">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8611111111111112</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4576271186440678</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8611111111111112</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4117647058823529</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8515625</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3066666666666666</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.85</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,38 +1324,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1972222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>0.8658536585365854</v>
+      </c>
+      <c r="L16">
         <v>71</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>71</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>289</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L16">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <v>28</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1342,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,141 +1374,237 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006121134020618557</v>
+        <v>0.2694444444444444</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>263</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>228</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>0.85625</v>
+      </c>
+      <c r="L18">
+        <v>137</v>
+      </c>
+      <c r="M18">
+        <v>137</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.008435259384226065</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0.29</v>
+      </c>
+      <c r="F19">
+        <v>0.71</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2351</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L19">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>33</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.006447453255963894</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3082</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.8450704225352113</v>
+      </c>
+      <c r="L20">
+        <v>120</v>
+      </c>
+      <c r="M20">
+        <v>120</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>0.14</v>
-      </c>
-      <c r="F17">
-        <v>0.86</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3085</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L17">
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.004862867146469559</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
         <v>49</v>
       </c>
-      <c r="M17">
-        <v>49</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L18">
-        <v>69</v>
-      </c>
-      <c r="M18">
-        <v>69</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L19">
-        <v>39</v>
-      </c>
-      <c r="M19">
-        <v>39</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L20">
-        <v>32</v>
-      </c>
-      <c r="M20">
-        <v>32</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="E21">
+        <v>0.49</v>
+      </c>
+      <c r="F21">
+        <v>0.51</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>5116</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1496,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.813953488372093</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1522,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.8095238095238095</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1548,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1574,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1600,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.7708333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1626,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1652,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1683,16 +1803,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.74</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1704,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.7382352941176471</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L30">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1730,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.7196652719665272</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L31">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1756,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.725</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1782,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.7006802721088435</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L33">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M33">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,24 +1925,24 @@
         <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.6914893617021277</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1834,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.6461538461538462</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1860,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.6363636363636364</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1886,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.6142857142857143</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L37">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="M37">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1912,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.5842696629213483</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1938,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L39">
         <v>60</v>
       </c>
-      <c r="K39">
-        <v>0.5490196078431373</v>
-      </c>
-      <c r="L39">
-        <v>28</v>
-      </c>
       <c r="M39">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1964,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.5476190476190477</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1990,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.5205479452054794</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L41">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2016,47 +2136,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.4871794871794872</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.4666666666666667</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2068,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.34375</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2094,111 +2214,241 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.02001668056713928</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1175</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.007874015748031496</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2646</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.004410585404971933</v>
+        <v>0.3125</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>4966</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.003884249368809478</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.02583333333333333</v>
+      </c>
+      <c r="L49">
+        <v>31</v>
+      </c>
+      <c r="M49">
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <v>0.01163227016885554</v>
+      </c>
+      <c r="L50">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>39</v>
+      </c>
+      <c r="N50">
+        <v>0.79</v>
+      </c>
+      <c r="O50">
+        <v>0.21</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51">
+        <v>0.005620232838217583</v>
+      </c>
+      <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <v>42</v>
+      </c>
+      <c r="N51">
+        <v>0.67</v>
+      </c>
+      <c r="O51">
+        <v>0.33</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52">
+        <v>0.005560704355885079</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
         <v>36</v>
       </c>
-      <c r="N48">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O48">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>5129</v>
+      <c r="N52">
+        <v>0.67</v>
+      </c>
+      <c r="O52">
+        <v>0.33</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53">
+        <v>0.004669260700389105</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>49</v>
+      </c>
+      <c r="N53">
+        <v>0.49</v>
+      </c>
+      <c r="O53">
+        <v>0.51</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>5116</v>
       </c>
     </row>
   </sheetData>
